--- a/Cuadros/q39.xlsx
+++ b/Cuadros/q39.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JNA\WITM\WITM\Cuadros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{577BE9BB-C390-47DA-884E-57EADB569B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB463C2-E4E4-41AC-B9DA-DD63626EB6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{F0AB72E0-6166-41B0-8E3E-C42BDD9A39F3}"/>
   </bookViews>
@@ -77,12 +77,6 @@
     <t>6. Central Asia &amp; Caucasus</t>
   </si>
   <si>
-    <t>4. Africa.y</t>
-  </si>
-  <si>
-    <t>4. Africa.x</t>
-  </si>
-  <si>
     <t>3. Eastern, Southeast and Central Europe</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>4. Africa</t>
+  </si>
+  <si>
+    <t>5. Asia &amp; the Pacific</t>
   </si>
 </sst>
 </file>
@@ -452,22 +452,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
